--- a/worksheet08/results.xlsx
+++ b/worksheet08/results.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
-    <t xml:space="preserve"># epochs = 10^5</t>
+    <t xml:space="preserve">TOTAL_NUM_OPS = 3 * 2^13</t>
   </si>
   <si>
     <t xml:space="preserve">Barrier</t>
@@ -39,6 +39,15 @@
     <t xml:space="preserve">Average</t>
   </si>
   <si>
+    <t xml:space="preserve">Coarse-Grained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine-Grained</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># epochs = 10^5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sense Reversing</t>
   </si>
   <si>
@@ -46,12 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pthread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse-Grained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine-Grained</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -365,10 +368,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>666.667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259.0916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -386,7 +389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -445,7 +448,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.816002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -530,11 +533,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="21190689"/>
-        <c:axId val="2177790"/>
+        <c:axId val="39609443"/>
+        <c:axId val="39415385"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21190689"/>
+        <c:axId val="39609443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2177790"/>
+        <c:crossAx val="39415385"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2177790"/>
+        <c:axId val="39415385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +666,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21190689"/>
+        <c:crossAx val="39609443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,7 +821,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>207.7304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -983,11 +986,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84703807"/>
-        <c:axId val="26879244"/>
+        <c:axId val="74391001"/>
+        <c:axId val="98540235"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84703807"/>
+        <c:axId val="74391001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1046,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26879244"/>
+        <c:crossAx val="98540235"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26879244"/>
+        <c:axId val="98540235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84703807"/>
+        <c:crossAx val="74391001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1436,11 +1439,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="97614488"/>
-        <c:axId val="83583592"/>
+        <c:axId val="65057335"/>
+        <c:axId val="17640612"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97614488"/>
+        <c:axId val="65057335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83583592"/>
+        <c:crossAx val="17640612"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83583592"/>
+        <c:axId val="17640612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,7 +1572,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97614488"/>
+        <c:crossAx val="65057335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,13 +1752,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>259.0916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207.7304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2005,11 +2008,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38361682"/>
-        <c:axId val="3908066"/>
+        <c:axId val="39614044"/>
+        <c:axId val="27833307"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38361682"/>
+        <c:axId val="39614044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3908066"/>
+        <c:crossAx val="27833307"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3908066"/>
+        <c:axId val="27833307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2141,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38361682"/>
+        <c:crossAx val="39614044"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2234,7 +2237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2293,13 +2296,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>207.7304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202.4788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2314,7 +2317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2458,11 +2461,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="1036941"/>
-        <c:axId val="70703510"/>
+        <c:axId val="61906285"/>
+        <c:axId val="40378614"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1036941"/>
+        <c:axId val="61906285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70703510"/>
+        <c:crossAx val="40378614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2526,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70703510"/>
+        <c:axId val="40378614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1036941"/>
+        <c:crossAx val="61906285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,7 +2690,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2746,10 +2749,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>202.7776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.7784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2767,7 +2770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2832,7 +2835,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>128.5528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,11 +2914,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="553530"/>
-        <c:axId val="76899901"/>
+        <c:axId val="46881386"/>
+        <c:axId val="30010963"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553530"/>
+        <c:axId val="46881386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +2974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76899901"/>
+        <c:crossAx val="30010963"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2979,7 +2982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76899901"/>
+        <c:axId val="30010963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553530"/>
+        <c:crossAx val="46881386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3112,7 +3115,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Scalability of Barrier Algorithms</a:t>
+              <a:t>Scalability of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3139,7 +3142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3187,31 +3190,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CooperLake!$C$6:$C$13</c:f>
+              <c:f>CooperLake!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3219,32 +3225,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CooperLake!$I$6:$I$13</c:f>
+              <c:f>CooperLake!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>259.0916</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207.7304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.4788</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.7776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.7784</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3261,7 +3270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3309,31 +3318,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CooperLake!$C$6:$C$13</c:f>
+              <c:f>CooperLake!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3341,12 +3353,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CooperLake!$I$15:$I$22</c:f>
+              <c:f>CooperLake!$I$14:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.816002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3369,104 +3381,9 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CooperLake!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CooperLake!$C$6:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CooperLake!$I$24:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:pt idx="8">
+                  <c:v>128.5528</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3480,11 +3397,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50022275"/>
-        <c:axId val="47994567"/>
+        <c:axId val="44003233"/>
+        <c:axId val="11867673"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50022275"/>
+        <c:axId val="44003233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47994567"/>
+        <c:crossAx val="11867673"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,7 +3465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47994567"/>
+        <c:axId val="11867673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50022275"/>
+        <c:crossAx val="44003233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,11 +3859,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81019250"/>
-        <c:axId val="28315716"/>
+        <c:axId val="25997884"/>
+        <c:axId val="5719756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81019250"/>
+        <c:axId val="25997884"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +3919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28315716"/>
+        <c:crossAx val="5719756"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +3927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28315716"/>
+        <c:axId val="5719756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +3992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81019250"/>
+        <c:crossAx val="25997884"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,11 +4321,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36771778"/>
-        <c:axId val="48855002"/>
+        <c:axId val="42919662"/>
+        <c:axId val="92714612"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36771778"/>
+        <c:axId val="42919662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4381,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48855002"/>
+        <c:crossAx val="92714612"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4472,7 +4389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48855002"/>
+        <c:axId val="92714612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4537,7 +4454,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36771778"/>
+        <c:crossAx val="42919662"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4866,11 +4783,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="409870"/>
-        <c:axId val="28162816"/>
+        <c:axId val="15457167"/>
+        <c:axId val="92902804"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="409870"/>
+        <c:axId val="15457167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4926,7 +4843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28162816"/>
+        <c:crossAx val="92902804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4934,7 +4851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28162816"/>
+        <c:axId val="92902804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4999,7 +4916,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409870"/>
+        <c:crossAx val="15457167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5459,11 +5376,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48077448"/>
-        <c:axId val="56391615"/>
+        <c:axId val="46639543"/>
+        <c:axId val="39287345"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48077448"/>
+        <c:axId val="46639543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5436,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56391615"/>
+        <c:crossAx val="39287345"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5527,7 +5444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56391615"/>
+        <c:axId val="39287345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,7 +5509,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48077448"/>
+        <c:crossAx val="46639543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5747,10 +5664,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>666.667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259.0916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5912,11 +5829,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38724680"/>
-        <c:axId val="3771158"/>
+        <c:axId val="43941900"/>
+        <c:axId val="54885033"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38724680"/>
+        <c:axId val="43941900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5889,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3771158"/>
+        <c:crossAx val="54885033"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5980,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3771158"/>
+        <c:axId val="54885033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +5962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38724680"/>
+        <c:crossAx val="43941900"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6104,9 +6021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6115,7 +6032,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4058640"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6134,9 +6051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6144,8 +6061,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225480" y="4058640"/>
-        <a:ext cx="5766120" cy="3237120"/>
+        <a:off x="6231960" y="4058640"/>
+        <a:ext cx="5775840" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6164,9 +6081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6175,7 +6092,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7792200"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6194,9 +6111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6204,8 +6121,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225840" y="7792560"/>
-        <a:ext cx="5769360" cy="3239280"/>
+        <a:off x="6232320" y="7792560"/>
+        <a:ext cx="5779080" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6229,9 +6146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6240,7 +6157,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="5520240"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6259,9 +6176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6269,8 +6186,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225120" y="5520240"/>
-        <a:ext cx="5766120" cy="3237120"/>
+        <a:off x="6231600" y="5520240"/>
+        <a:ext cx="5775840" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6289,9 +6206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6300,7 +6217,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="9253800"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6319,9 +6236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6329,8 +6246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225480" y="9254160"/>
-        <a:ext cx="5769360" cy="3239280"/>
+        <a:off x="6231960" y="9254160"/>
+        <a:ext cx="5779080" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6354,9 +6271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
+      <xdr:colOff>353160</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6365,7 +6282,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="4059000"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6384,9 +6301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6394,8 +6311,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225480" y="4059000"/>
-        <a:ext cx="5766120" cy="3237120"/>
+        <a:off x="6231960" y="4059000"/>
+        <a:ext cx="5775840" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6414,9 +6331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
+      <xdr:colOff>353160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6425,7 +6342,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="7792560"/>
-        <a:ext cx="5762520" cy="3237120"/>
+        <a:ext cx="5768640" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6444,9 +6361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6454,8 +6371,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6225840" y="7792920"/>
-        <a:ext cx="5769360" cy="3239280"/>
+        <a:off x="6232320" y="7792920"/>
+        <a:ext cx="5779080" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6476,10 +6393,10 @@
   <dimension ref="B1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
@@ -6550,24 +6467,14 @@
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>666.667</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>666.667</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>666.667</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>666.667</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>666.667</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6" t="n">
         <f aca="false">(D5+E5+F5+G5+H5)/5</f>
-        <v>666.667</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
@@ -6582,24 +6489,14 @@
       <c r="C6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>263.158</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>259.74</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>259.74</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>256.41</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>256.41</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="6" t="n">
         <f aca="false">(D6+E6+F6+G6+H6)/5</f>
-        <v>259.0916</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -6624,24 +6521,9 @@
       <c r="C8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>206.718</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>206.718</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>213.904</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>205.656</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>205.656</v>
-      </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(D8+E8+F8+G8+H8)/5</f>
-        <v>207.7304</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -6666,24 +6548,14 @@
       <c r="C10" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>206.009</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>204.604</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>204.429</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>198.347</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>199.005</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="6" t="n">
         <f aca="false">(D10+E10+F10+G10+H10)/5</f>
-        <v>202.4788</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -6692,24 +6564,14 @@
       <c r="C11" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>205.92</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>204.691</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>205.832</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>199.833</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>197.612</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="6" t="n">
         <f aca="false">(D11+E11+F11+G11+H11)/5</f>
-        <v>202.7776</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -6718,24 +6580,14 @@
       <c r="C12" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>156.658</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>154.964</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>153.086</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>146.074</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>138.11</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="6" t="n">
         <f aca="false">(D12+E12+F12+G12+H12)/5</f>
-        <v>149.7784</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -6762,14 +6614,24 @@
       <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="D14" s="2" t="n">
+        <v>9.90099</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>9.88142</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>9.81354</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>9.78474</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>9.69932</v>
+      </c>
       <c r="I14" s="6" t="n">
         <f aca="false">(D14+E14+F14+G14+H14)/5</f>
-        <v>0</v>
+        <v>9.816002</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -6890,14 +6752,24 @@
       <c r="C22" s="4" t="n">
         <v>192</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="D22" s="2" t="n">
+        <v>131.453</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>129.058</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>127.932</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>127.093</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>127.228</v>
+      </c>
       <c r="I22" s="6" t="n">
         <f aca="false">(D22+E22+F22+G22+H22)/5</f>
-        <v>0</v>
+        <v>128.5528</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -6942,14 +6814,14 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
@@ -7008,7 +6880,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
@@ -7250,7 +7122,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
@@ -7486,7 +7358,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1</v>
@@ -7753,14 +7625,14 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
@@ -7819,14 +7691,14 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">(CooperLake!D5+CooperLake!E5+CooperLake!F5+CooperLake!G5+CooperLake!H5)/5</f>
-        <v>666.667</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
@@ -7843,7 +7715,7 @@
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">(CooperLake!D6+CooperLake!E6+CooperLake!F6+CooperLake!G6+CooperLake!H6)/5</f>
-        <v>259.0916</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -7865,7 +7737,7 @@
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">(CooperLake!D8+CooperLake!E8+CooperLake!F8+CooperLake!G8+CooperLake!H8)/5</f>
-        <v>207.7304</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -7951,7 +7823,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>

--- a/worksheet08/results.xlsx
+++ b/worksheet08/results.xlsx
@@ -22,18 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
-    <t xml:space="preserve">TOTAL_NUM_OPS = 3 * 2^13</t>
+    <t xml:space="preserve">NUM_OPS_PER_THREAD = 10000</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrier</t>
+    <t xml:space="preserve">Locking Strategies</t>
   </si>
   <si>
     <t xml:space="preserve"># thread</t>
   </si>
   <si>
-    <t xml:space="preserve">Episodes per millisecond</t>
+    <t xml:space="preserve">Operations per millisecond</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fine-Grained</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># epochs = 10^5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sense Reversing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pthread</t>
   </si>
 </sst>
 </file>
@@ -166,6 +154,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +175,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -243,7 +231,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -281,7 +269,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -368,13 +356,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>666.667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>271.9126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>217.902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,93 +439,22 @@
                   <c:v>9.816002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.79166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CooperLake!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CooperLake!$C$5:$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CooperLake!$I$23:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                  <c:v>14.32694</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39609443"/>
-        <c:axId val="39415385"/>
+        <c:axId val="37989081"/>
+        <c:axId val="10382586"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39609443"/>
+        <c:axId val="37989081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +510,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39415385"/>
+        <c:crossAx val="10382586"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39415385"/>
+        <c:axId val="10382586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +548,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -666,7 +583,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39609443"/>
+        <c:crossAx val="37989081"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -734,7 +651,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Peformance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -821,13 +738,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>238.5662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>213.974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>214.6246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,96 +818,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>114.2694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>177.5206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Thunder!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Thunder!$C$8:$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Thunder!$I$26:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                  <c:v>191.7134</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="74391001"/>
-        <c:axId val="98540235"/>
+        <c:axId val="62302161"/>
+        <c:axId val="37819315"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74391001"/>
+        <c:axId val="62302161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98540235"/>
+        <c:crossAx val="37819315"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98540235"/>
+        <c:axId val="37819315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +930,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1119,7 +965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74391001"/>
+        <c:crossAx val="62302161"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1187,7 +1033,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1274,13 +1120,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>208.332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>204.9754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>165.2464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,96 +1200,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>159.801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150.232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Thunder!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Thunder!$C$11:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Thunder!$I$29:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                  <c:v>110.484</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="65057335"/>
-        <c:axId val="17640612"/>
+        <c:axId val="66991815"/>
+        <c:axId val="47972715"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65057335"/>
+        <c:axId val="66991815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1274,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17640612"/>
+        <c:crossAx val="47972715"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17640612"/>
+        <c:axId val="47972715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1312,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1572,7 +1347,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65057335"/>
+        <c:crossAx val="66991815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1415,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Scalability of Barrier Algorithms</a:t>
+              <a:t>Scalability of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1715,31 +1490,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Thunder!$C$6:$C$13</c:f>
+              <c:f>Thunder!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256</c:v>
                 </c:pt>
               </c:strCache>
@@ -1747,33 +1525,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Thunder!$I$6:$I$13</c:f>
+              <c:f>Thunder!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>588.235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>287.3948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>252.5316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>238.5662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>213.974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>214.6246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>208.332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>204.9754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>165.2464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,31 +1618,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Thunder!$C$6:$C$13</c:f>
+              <c:f>Thunder!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256</c:v>
                 </c:pt>
               </c:strCache>
@@ -1869,132 +1653,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Thunder!$I$15:$I$22</c:f>
+              <c:f>Thunder!$I$14:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.5051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.81916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>61.1857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>114.2694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>177.5206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>191.7134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>159.801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Thunder!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Thunder!$C$6:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Thunder!$I$24:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                  <c:v>150.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.484</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2008,11 +1697,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39614044"/>
-        <c:axId val="27833307"/>
+        <c:axId val="16595639"/>
+        <c:axId val="80534914"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39614044"/>
+        <c:axId val="16595639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +1757,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27833307"/>
+        <c:crossAx val="80534914"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2076,7 +1765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27833307"/>
+        <c:axId val="80534914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +1795,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2141,7 +1830,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39614044"/>
+        <c:crossAx val="16595639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2209,7 +1898,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Peformance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2296,13 +1985,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>205.554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>194.1914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>198.2892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,96 +2065,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22.88832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>38.6083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CooperLake!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CooperLake!$C$8:$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CooperLake!$I$26:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                  <c:v>55.78992</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61906285"/>
-        <c:axId val="40378614"/>
+        <c:axId val="83793026"/>
+        <c:axId val="91500970"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61906285"/>
+        <c:axId val="83793026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40378614"/>
+        <c:crossAx val="91500970"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2529,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40378614"/>
+        <c:axId val="91500970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2177,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2594,7 +2212,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61906285"/>
+        <c:crossAx val="83793026"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2662,7 +2280,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2749,13 +2367,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>202.7056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>159.5608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>75.75176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,96 +2447,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>100.973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>121.2694</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>128.5528</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CooperLake!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>CooperLake!$C$11:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CooperLake!$I$29:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46881386"/>
-        <c:axId val="30010963"/>
+        <c:axId val="68322163"/>
+        <c:axId val="64947130"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46881386"/>
+        <c:axId val="68322163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +2521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30010963"/>
+        <c:crossAx val="64947130"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2982,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30010963"/>
+        <c:axId val="64947130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,7 +2559,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3047,7 +2594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46881386"/>
+        <c:crossAx val="68322163"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3230,31 +2777,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>666.667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>271.9126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>217.902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>205.554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>194.1914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>198.2892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>202.7056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>159.5608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>75.75176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,25 +2908,25 @@
                   <c:v>9.816002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.79166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14.32694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22.88832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>38.6083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>55.78992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100.973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>121.2694</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>128.5528</c:v>
@@ -3397,11 +2944,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44003233"/>
-        <c:axId val="11867673"/>
+        <c:axId val="41501017"/>
+        <c:axId val="44777542"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44003233"/>
+        <c:axId val="41501017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11867673"/>
+        <c:crossAx val="44777542"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3465,7 +3012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11867673"/>
+        <c:axId val="44777542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,7 +3042,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3530,7 +3077,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44003233"/>
+        <c:crossAx val="41501017"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3598,7 +3145,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3626,7 +3173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3685,13 +3232,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18000</c:v>
+                  <c:v>423.9134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8505.496</c:v>
+                  <c:v>234.8898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3941.024</c:v>
+                  <c:v>177.6514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,7 +3253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3765,93 +3312,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10055.552</c:v>
+                  <c:v>82.92466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6438.376</c:v>
+                  <c:v>91.83766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5825.164</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rome!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pthread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Rome!$C$5:$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rome!$I$23:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8046.398</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1054.2342</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>517.7228</c:v>
+                  <c:v>105.04308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,11 +3326,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25997884"/>
-        <c:axId val="5719756"/>
+        <c:axId val="1278225"/>
+        <c:axId val="23872962"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25997884"/>
+        <c:axId val="1278225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3386,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5719756"/>
+        <c:crossAx val="23872962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3927,7 +3394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5719756"/>
+        <c:axId val="23872962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3424,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3992,7 +3459,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25997884"/>
+        <c:crossAx val="1278225"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4060,7 +3527,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Peformance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4088,7 +3555,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4147,13 +3614,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2000.944</c:v>
+                  <c:v>142.5334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>485.8012</c:v>
+                  <c:v>136.0362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294.7564</c:v>
+                  <c:v>130.1032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,7 +3635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4227,93 +3694,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4588.74</c:v>
+                  <c:v>133.39948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>727.8724</c:v>
+                  <c:v>77.05952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>453.635</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rome!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pthread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Rome!$C$8:$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rome!$I$26:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>236.3802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107.52106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.68922</c:v>
+                  <c:v>117.8996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,11 +3708,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42919662"/>
-        <c:axId val="92714612"/>
+        <c:axId val="36569758"/>
+        <c:axId val="3108482"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42919662"/>
+        <c:axId val="36569758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4381,7 +3768,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92714612"/>
+        <c:crossAx val="3108482"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4389,7 +3776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92714612"/>
+        <c:axId val="3108482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +3806,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4454,7 +3841,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42919662"/>
+        <c:crossAx val="36569758"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4522,7 +3909,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4550,7 +3937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4609,13 +3996,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>149.5262</c:v>
+                  <c:v>119.757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.31344</c:v>
+                  <c:v>116.0166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.01436</c:v>
+                  <c:v>109.8868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,7 +4017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4689,93 +4076,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>390.0736</c:v>
+                  <c:v>146.0766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.3908</c:v>
+                  <c:v>139.7598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.8694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rome!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pthread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Rome!$C$11:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rome!$I$29:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.60096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.230422</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.466318</c:v>
+                  <c:v>110.0258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,11 +4090,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15457167"/>
-        <c:axId val="92902804"/>
+        <c:axId val="47278266"/>
+        <c:axId val="89038752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15457167"/>
+        <c:axId val="47278266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4843,7 +4150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92902804"/>
+        <c:crossAx val="89038752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4851,7 +4158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92902804"/>
+        <c:axId val="89038752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4188,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4916,7 +4223,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15457167"/>
+        <c:crossAx val="47278266"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4984,7 +4291,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Scalability of Barrier Algorithms</a:t>
+              <a:t>Scalability of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5011,7 +4318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sense Reversing</c:v>
+                  <c:v>Coarse-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5059,31 +4366,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Rome!$C$6:$C$13</c:f>
+              <c:f>Rome!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256</c:v>
                 </c:pt>
               </c:strCache>
@@ -5091,33 +4401,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rome!$I$6:$I$13</c:f>
+              <c:f>Rome!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8505.496</c:v>
+                  <c:v>423.9134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3941.024</c:v>
+                  <c:v>234.8898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000.944</c:v>
+                  <c:v>177.6514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>485.8012</c:v>
+                  <c:v>142.5334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>294.7564</c:v>
+                  <c:v>136.0362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.5262</c:v>
+                  <c:v>130.1032</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.31344</c:v>
+                  <c:v>119.757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.01436</c:v>
+                  <c:v>116.0166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>109.8868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,7 +4446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
+                  <c:v>Fine-Grained</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5181,31 +4494,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Rome!$C$6:$C$13</c:f>
+              <c:f>Rome!$C$5:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>256</c:v>
                 </c:pt>
               </c:strCache>
@@ -5213,155 +4529,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rome!$I$15:$I$22</c:f>
+              <c:f>Rome!$I$14:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6438.376</c:v>
+                  <c:v>82.92466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5825.164</c:v>
+                  <c:v>91.83766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4588.74</c:v>
+                  <c:v>105.04308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>727.8724</c:v>
+                  <c:v>133.39948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>453.635</c:v>
+                  <c:v>77.05952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390.0736</c:v>
+                  <c:v>117.8996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.3908</c:v>
+                  <c:v>146.0766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.8694</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Rome!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pthread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Rome!$C$6:$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Rome!$I$24:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1054.2342</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>517.7228</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>236.3802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>107.52106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.68922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.60096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.230422</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.466318</c:v>
+                  <c:v>139.7598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.0258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5376,11 +4573,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46639543"/>
-        <c:axId val="39287345"/>
+        <c:axId val="75981958"/>
+        <c:axId val="10670489"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46639543"/>
+        <c:axId val="75981958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5436,7 +4633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39287345"/>
+        <c:crossAx val="10670489"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5444,7 +4641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39287345"/>
+        <c:axId val="10670489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5474,7 +4671,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5509,7 +4706,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46639543"/>
+        <c:crossAx val="75981958"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5577,7 +4774,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Performance of Barrier Algorithms</a:t>
+              <a:t>Performance of Locking Strategies</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5664,13 +4861,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>588.235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>287.3948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>252.5316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,96 +4941,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.5051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.81916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Thunder!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Thunder!$C$5:$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Thunder!$I$23:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                  <c:v>61.1857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43941900"/>
-        <c:axId val="54885033"/>
+        <c:axId val="68927458"/>
+        <c:axId val="66519582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43941900"/>
+        <c:axId val="68927458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54885033"/>
+        <c:crossAx val="66519582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +5023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54885033"/>
+        <c:axId val="66519582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5927,7 +5053,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Episodes per millisecond</a:t>
+                  <a:t>Operations per millisecond</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5962,7 +5088,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43941900"/>
+        <c:crossAx val="68927458"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6017,13 +5143,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6032,7 +5158,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4058640"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6047,13 +5173,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>816120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6061,8 +5187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6231960" y="4058640"/>
-        <a:ext cx="5775840" cy="3236760"/>
+        <a:off x="6244560" y="4058640"/>
+        <a:ext cx="5795640" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6077,13 +5203,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6092,7 +5218,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7792200"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6107,13 +5233,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>816480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>41760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6121,8 +5247,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6232320" y="7792560"/>
-        <a:ext cx="5779080" cy="3238920"/>
+        <a:off x="6244920" y="7792560"/>
+        <a:ext cx="5798880" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6141,14 +5267,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:colOff>352080</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6156,8 +5282,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="5520240"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:off x="0" y="4058640"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6170,15 +5296,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>815760</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>816120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:colOff>38160</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6186,8 +5312,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6231600" y="5520240"/>
-        <a:ext cx="5775840" cy="3236760"/>
+        <a:off x="6244560" y="4058640"/>
+        <a:ext cx="5795640" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6201,14 +5327,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>352080</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6216,8 +5342,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="9253800"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:off x="0" y="7792200"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6230,15 +5356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>816120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:colOff>816480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6246,8 +5372,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6231960" y="9254160"/>
-        <a:ext cx="5779080" cy="3238920"/>
+        <a:off x="6244920" y="7792560"/>
+        <a:ext cx="5798880" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6265,15 +5391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6281,8 +5407,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="4059000"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:off x="0" y="4058640"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6297,13 +5423,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>816120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6311,8 +5437,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6231960" y="4059000"/>
-        <a:ext cx="5775840" cy="3236760"/>
+        <a:off x="6244560" y="4058640"/>
+        <a:ext cx="5795640" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6325,15 +5451,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6341,8 +5467,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="7792560"/>
-        <a:ext cx="5768640" cy="3236760"/>
+        <a:off x="0" y="7792200"/>
+        <a:ext cx="5780520" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6357,13 +5483,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>816480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>41760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6371,8 +5497,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6232320" y="7792920"/>
-        <a:ext cx="5779080" cy="3238920"/>
+        <a:off x="6244920" y="7792560"/>
+        <a:ext cx="5798880" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6392,11 +5518,11 @@
   </sheetPr>
   <dimension ref="B1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
@@ -6408,210 +5534,305 @@
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="n">
+      <c r="D5" s="6" t="n">
+        <v>666.667</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>666.667</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>666.667</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>666.667</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>666.667</v>
+      </c>
+      <c r="I5" s="7" t="n">
         <f aca="false">(D5+E5+F5+G5+H5)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+        <v>666.667</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6" t="n">
+      <c r="D6" s="2" t="n">
+        <v>281.69</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>277.778</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>270.27</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>266.667</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>263.158</v>
+      </c>
+      <c r="I6" s="7" t="n">
         <f aca="false">(D6+E6+F6+G6+H6)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
+        <v>271.9126</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6" t="n">
+      <c r="D7" s="2" t="n">
+        <v>218.579</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>217.391</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>220.994</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>219.78</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>212.766</v>
+      </c>
+      <c r="I7" s="7" t="n">
         <f aca="false">(D7+E7+F7+G7+H7)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
+        <v>217.902</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="D8" s="0" t="n">
+        <v>206.186</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>205.128</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>206.718</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>205.656</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>204.082</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <f aca="false">(D8+E8+F8+G8+H8)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>205.554</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6" t="n">
+      <c r="D9" s="2" t="n">
+        <v>200.753</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>197.287</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>192.077</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>193.705</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>187.135</v>
+      </c>
+      <c r="I9" s="7" t="n">
         <f aca="false">(D9+E9+F9+G9+H9)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>194.1914</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6" t="n">
+      <c r="D10" s="2" t="n">
+        <v>199.833</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>199.667</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>197.531</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>197.694</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>196.721</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <f aca="false">(D10+E10+F10+G10+H10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
+        <v>198.2892</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6" t="n">
+      <c r="D11" s="2" t="n">
+        <v>210.066</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>203.132</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>203.39</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>198.265</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>198.675</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <f aca="false">(D11+E11+F11+G11+H11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="7"/>
+        <v>202.7056</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6" t="n">
+      <c r="D12" s="2" t="n">
+        <v>163.627</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>164.666</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>159.336</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>156.403</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>153.772</v>
+      </c>
+      <c r="I12" s="7" t="n">
         <f aca="false">(D12+E12+F12+G12+H12)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7"/>
+        <v>159.5608</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>192</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6" t="n">
+      <c r="D13" s="2" t="n">
+        <v>82.4353</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>75.3976</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>74.5718</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>73.4141</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <f aca="false">(D13+E13+F13+G13+H13)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7"/>
+        <v>75.75176</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -6629,127 +5850,197 @@
       <c r="H14" s="2" t="n">
         <v>9.69932</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="7" t="n">
         <f aca="false">(D14+E14+F14+G14+H14)/5</f>
         <v>9.816002</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6" t="n">
+      <c r="D15" s="2" t="n">
+        <v>11.9119</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>11.8064</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>11.8413</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>11.7233</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>11.6754</v>
+      </c>
+      <c r="I15" s="7" t="n">
         <f aca="false">(D15+E15+F15+G15+H15)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>11.79166</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6" t="n">
+      <c r="D16" s="2" t="n">
+        <v>14.4144</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>14.2959</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>14.3988</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>14.2501</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>14.2755</v>
+      </c>
+      <c r="I16" s="7" t="n">
         <f aca="false">(D16+E16+F16+G16+H16)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>14.32694</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6" t="n">
+      <c r="D17" s="2" t="n">
+        <v>24.5324</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>23.0481</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>22.6244</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>22.6501</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>21.5866</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <f aca="false">(D17+E17+F17+G17+H17)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>22.88832</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6" t="n">
+      <c r="D18" s="2" t="n">
+        <v>43.4783</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>38.0862</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>38.5078</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>36.3224</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>36.6468</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <f aca="false">(D18+E18+F18+G18+H18)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>38.6083</v>
+      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6" t="n">
+      <c r="D19" s="2" t="n">
+        <v>56.5504</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>56.7242</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>55.6457</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>55.6199</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>54.4094</v>
+      </c>
+      <c r="I19" s="7" t="n">
         <f aca="false">(D19+E19+F19+G19+H19)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>55.78992</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6" t="n">
+      <c r="D20" s="2" t="n">
+        <v>100.503</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>100.104</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>100.862</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>100.104</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>103.292</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <f aca="false">(D20+E20+F20+G20+H20)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>100.973</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6" t="n">
+      <c r="D21" s="2" t="n">
+        <v>121.304</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>121.843</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>122.387</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>120.497</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>120.316</v>
+      </c>
+      <c r="I21" s="7" t="n">
         <f aca="false">(D21+E21+F21+G21+H21)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>121.2694</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>192</v>
       </c>
       <c r="D22" s="2" t="n">
@@ -6767,11 +6058,11 @@
       <c r="H22" s="2" t="n">
         <v>127.228</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <f aca="false">(D22+E22+F22+G22+H22)/5</f>
         <v>128.5528</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6808,800 +6099,573 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P35"/>
+  <dimension ref="B1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="6" t="n">
+      <c r="D5" s="6" t="n">
+        <v>434.783</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>434.783</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>416.667</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>416.667</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>416.667</v>
+      </c>
+      <c r="I5" s="7" t="n">
         <f aca="false">(D5+E5+F5+G5+H5)/5</f>
-        <v>18000</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+        <v>423.9134</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>10000</v>
+        <v>238.095</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>10000</v>
+        <v>243.902</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7142.86</v>
+        <v>235.294</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7692.31</v>
+        <v>229.885</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>7692.31</v>
-      </c>
-      <c r="I6" s="6" t="n">
+        <v>227.273</v>
+      </c>
+      <c r="I6" s="7" t="n">
         <f aca="false">(D6+E6+F6+G6+H6)/5</f>
-        <v>8505.496</v>
-      </c>
-      <c r="J6" s="7"/>
+        <v>234.8898</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4000</v>
+        <v>186.047</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4166.67</v>
+        <v>177.778</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3846.15</v>
+        <v>181.818</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3846.15</v>
+        <v>170.94</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>3846.15</v>
-      </c>
-      <c r="I7" s="6" t="n">
+        <v>171.674</v>
+      </c>
+      <c r="I7" s="7" t="n">
         <f aca="false">(D7+E7+F7+G7+H7)/5</f>
-        <v>3941.024</v>
-      </c>
-      <c r="J7" s="7"/>
+        <v>177.6514</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>8</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2000</v>
+        <v>142.349</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2040.82</v>
+        <v>148.699</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2040.82</v>
+        <v>141.844</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2000</v>
+        <v>141.844</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1923.08</v>
-      </c>
-      <c r="I8" s="6" t="n">
+        <v>137.931</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <f aca="false">(D8+E8+F8+G8+H8)/5</f>
-        <v>2000.944</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>142.5334</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>507.614</v>
+        <v>138.528</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>490.196</v>
+        <v>139.01</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>485.437</v>
+        <v>139.373</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>478.469</v>
+        <v>131.148</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>467.29</v>
-      </c>
-      <c r="I9" s="6" t="n">
+        <v>132.122</v>
+      </c>
+      <c r="I9" s="7" t="n">
         <f aca="false">(D9+E9+F9+G9+H9)/5</f>
-        <v>485.8012</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>136.0362</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>309.598</v>
+        <v>131.201</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>295.858</v>
+        <v>130.028</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>298.507</v>
+        <v>132.835</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>286.533</v>
+        <v>130.666</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>283.286</v>
-      </c>
-      <c r="I10" s="6" t="n">
+        <v>125.786</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <f aca="false">(D10+E10+F10+G10+H10)/5</f>
-        <v>294.7564</v>
-      </c>
-      <c r="J10" s="7"/>
+        <v>130.1032</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>64</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>156.25</v>
+        <v>122.277</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>152.905</v>
+        <v>125.712</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>149.031</v>
+        <v>118.519</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>145.56</v>
+        <v>117.045</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>143.885</v>
-      </c>
-      <c r="I11" s="6" t="n">
+        <v>115.232</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <f aca="false">(D11+E11+F11+G11+H11)/5</f>
-        <v>149.5262</v>
-      </c>
-      <c r="J11" s="7"/>
+        <v>119.757</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>128</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>75.7002</v>
+        <v>118.212</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>75.5287</v>
+        <v>116.906</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>76.8049</v>
+        <v>115.409</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>74.3494</v>
+        <v>114.922</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>74.184</v>
-      </c>
-      <c r="I12" s="6" t="n">
+        <v>114.634</v>
+      </c>
+      <c r="I12" s="7" t="n">
         <f aca="false">(D12+E12+F12+G12+H12)/5</f>
-        <v>75.31344</v>
-      </c>
-      <c r="J12" s="7"/>
+        <v>116.0166</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>256</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>55.2792</v>
+        <v>111.591</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>53.7634</v>
+        <v>118.766</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>52.0833</v>
+        <v>113.42</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>52.7426</v>
+        <v>103.896</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>51.2033</v>
-      </c>
-      <c r="I13" s="6" t="n">
+        <v>101.761</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <f aca="false">(D13+E13+F13+G13+H13)/5</f>
-        <v>53.01436</v>
-      </c>
-      <c r="J13" s="7"/>
+        <v>109.8868</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>11111.1</v>
+        <v>84.0336</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>10000</v>
+        <v>83.3333</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>12500</v>
+        <v>82.6446</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8333.33</v>
+        <v>82.6446</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>8333.33</v>
-      </c>
-      <c r="I14" s="6" t="n">
+        <v>81.9672</v>
+      </c>
+      <c r="I14" s="7" t="n">
         <f aca="false">(D14+E14+F14+G14+H14)/5</f>
-        <v>10055.552</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>82.92466</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7142.86</v>
+        <v>92.1659</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6250</v>
+        <v>93.0233</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6666.67</v>
+        <v>92.1659</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6250</v>
+        <v>91.7431</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>5882.35</v>
-      </c>
-      <c r="I15" s="6" t="n">
+        <v>90.0901</v>
+      </c>
+      <c r="I15" s="7" t="n">
         <f aca="false">(D15+E15+F15+G15+H15)/5</f>
-        <v>6438.376</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>91.83766</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5882.35</v>
+        <v>136.986</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6250</v>
+        <v>118.694</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5882.35</v>
+        <v>100.756</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5555.56</v>
+        <v>84.7458</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>5555.56</v>
-      </c>
-      <c r="I16" s="6" t="n">
+        <v>84.0336</v>
+      </c>
+      <c r="I16" s="7" t="n">
         <f aca="false">(D16+E16+F16+G16+H16)/5</f>
-        <v>5825.164</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>105.04308</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4761.9</v>
+        <v>184.758</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4545.45</v>
+        <v>185.185</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4545.45</v>
+        <v>183.066</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4545.45</v>
+        <v>58.3942</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4545.45</v>
-      </c>
-      <c r="I17" s="6" t="n">
+        <v>55.5942</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <f aca="false">(D17+E17+F17+G17+H17)/5</f>
-        <v>4588.74</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>133.39948</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>769.231</v>
+        <v>80.3213</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>735.294</v>
+        <v>78.1632</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>724.638</v>
+        <v>75.0821</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>729.927</v>
+        <v>75.9734</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>680.272</v>
-      </c>
-      <c r="I18" s="6" t="n">
+        <v>75.7576</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <f aca="false">(D18+E18+F18+G18+H18)/5</f>
-        <v>727.8724</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>77.05952</v>
+      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>465.116</v>
+        <v>122.746</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>465.116</v>
+        <v>118.081</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>458.716</v>
+        <v>117.907</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>444.444</v>
+        <v>117.087</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>434.783</v>
-      </c>
-      <c r="I19" s="6" t="n">
+        <v>113.677</v>
+      </c>
+      <c r="I19" s="7" t="n">
         <f aca="false">(D19+E19+F19+G19+H19)/5</f>
-        <v>453.635</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>117.8996</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>64</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>403.226</v>
+        <v>151.229</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>400</v>
+        <v>143.594</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>384.615</v>
+        <v>143.53</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>392.157</v>
+        <v>148.08</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>370.37</v>
-      </c>
-      <c r="I20" s="6" t="n">
+        <v>143.95</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <f aca="false">(D20+E20+F20+G20+H20)/5</f>
-        <v>390.0736</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>146.0766</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>128</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>194.553</v>
+        <v>140.351</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>195.312</v>
+        <v>140.382</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>201.207</v>
+        <v>140.182</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>182.815</v>
+        <v>138.723</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>168.067</v>
-      </c>
-      <c r="I21" s="6" t="n">
+        <v>139.161</v>
+      </c>
+      <c r="I21" s="7" t="n">
         <f aca="false">(D21+E21+F21+G21+H21)/5</f>
-        <v>188.3908</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>139.7598</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>256</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>127.551</v>
+        <v>111.358</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>125.156</v>
+        <v>110.554</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>124.533</v>
+        <v>109.024</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>118.483</v>
+        <v>110.645</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>118.624</v>
-      </c>
-      <c r="I22" s="6" t="n">
+        <v>108.548</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <f aca="false">(D22+E22+F22+G22+H22)/5</f>
-        <v>122.8694</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>110.0258</v>
+      </c>
+      <c r="J22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>11111.1</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>7692.31</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>7142.86</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>7142.86</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>7142.86</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <f aca="false">(D23+E23+F23+G23+H23)/5</f>
-        <v>8046.398</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1111.11</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>1111.11</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>1111.11</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>1020.41</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>917.431</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <f aca="false">(D24+E24+F24+G24+H24)/5</f>
-        <v>1054.2342</v>
-      </c>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>510.204</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>507.614</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>529.101</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>523.56</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>518.135</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <f aca="false">(D25+E25+F25+G25+H25)/5</f>
-        <v>517.7228</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>262.467</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>243.902</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>230.947</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>226.244</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>218.341</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <f aca="false">(D26+E26+F26+G26+H26)/5</f>
-        <v>236.3802</v>
-      </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>108.225</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>117.786</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>118.343</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>97.4659</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>95.7854</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <f aca="false">(D27+E27+F27+G27+H27)/5</f>
-        <v>107.52106</v>
-      </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>50.9944</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>46.9043</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>40.3877</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>37.5516</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>37.6081</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <f aca="false">(D28+E28+F28+G28+H28)/5</f>
-        <v>42.68922</v>
-      </c>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>22.2568</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>22.1533</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>21.9877</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>21.9684</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>19.6386</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <f aca="false">(D29+E29+F29+G29+H29)/5</f>
-        <v>21.60096</v>
-      </c>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4" t="n">
-        <v>128</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>10.5775</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>10.2807</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>10.5252</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>10.2449</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>9.52381</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <f aca="false">(D30+E30+F30+G30+H30)/5</f>
-        <v>10.230422</v>
-      </c>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4" t="n">
-        <v>256</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>3.49052</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>3.57168</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>3.43454</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>3.48286</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>3.35199</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <f aca="false">(D31+E31+F31+G31+H31)/5</f>
-        <v>3.466318</v>
-      </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7619,454 +6683,565 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P35"/>
+  <dimension ref="B1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <f aca="false">(CooperLake!D5+CooperLake!E5+CooperLake!F5+CooperLake!G5+CooperLake!H5)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="D5" s="6" t="n">
+        <v>588.235</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>588.235</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>588.235</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>588.235</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>588.235</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">(D5+E5+F5+G5+H5)/5</f>
+        <v>588.235</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <f aca="false">(CooperLake!D6+CooperLake!E6+CooperLake!F6+CooperLake!G6+CooperLake!H6)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
+      <c r="D6" s="2" t="n">
+        <v>294.118</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>285.714</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>285.714</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>285.714</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>285.714</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">(D6+E6+F6+G6+H6)/5</f>
+        <v>287.3948</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="n">
-        <f aca="false">(CooperLake!D7+CooperLake!E7+CooperLake!F7+CooperLake!G7+CooperLake!H7)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
+      <c r="D7" s="2" t="n">
+        <v>254.777</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>253.165</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>251.572</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>251.572</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>251.572</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">(D7+E7+F7+G7+H7)/5</f>
+        <v>252.5316</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <f aca="false">(CooperLake!D8+CooperLake!E8+CooperLake!F8+CooperLake!G8+CooperLake!H8)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="D8" s="0" t="n">
+        <v>240.964</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>242.424</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>239.521</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>233.236</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>236.686</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">(D8+E8+F8+G8+H8)/5</f>
+        <v>238.5662</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6" t="n">
+      <c r="D9" s="2" t="n">
+        <v>215.633</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>215.924</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>214.19</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>211.64</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>212.483</v>
+      </c>
+      <c r="I9" s="7" t="n">
         <f aca="false">(D9+E9+F9+G9+H9)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>213.974</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6" t="n">
+      <c r="D10" s="2" t="n">
+        <v>214.19</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>215.198</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>213.904</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>213.761</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>216.07</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <f aca="false">(D10+E10+F10+G10+H10)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
+        <v>214.6246</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6" t="n">
+      <c r="D11" s="2" t="n">
+        <v>209.699</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>204.997</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>210.457</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>210.388</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>206.119</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <f aca="false">(D11+E11+F11+G11+H11)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="7"/>
+        <v>208.332</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6" t="n">
+      <c r="D12" s="2" t="n">
+        <v>201.037</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>206.785</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>202.885</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>208.877</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>205.293</v>
+      </c>
+      <c r="I12" s="7" t="n">
         <f aca="false">(D12+E12+F12+G12+H12)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7"/>
+        <v>204.9754</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>256</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6" t="n">
+      <c r="D13" s="2" t="n">
+        <v>173.301</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>170.326</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>160.784</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>169.964</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>151.857</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <f aca="false">(D13+E13+F13+G13+H13)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7"/>
+        <v>165.2464</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6" t="n">
+      <c r="D14" s="2" t="n">
+        <v>50.5051</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>50.5051</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>50.5051</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>50.5051</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>50.5051</v>
+      </c>
+      <c r="I14" s="7" t="n">
         <f aca="false">(D14+E14+F14+G14+H14)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>50.5051</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6" t="n">
+      <c r="D15" s="2" t="n">
+        <v>36.9686</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>36.8324</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>36.8324</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>36.8324</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="I15" s="7" t="n">
         <f aca="false">(D15+E15+F15+G15+H15)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>36.81916</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6" t="n">
+      <c r="D16" s="2" t="n">
+        <v>61.6333</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>62.0155</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>60.9756</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>60.6061</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>60.698</v>
+      </c>
+      <c r="I16" s="7" t="n">
         <f aca="false">(D16+E16+F16+G16+H16)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>61.1857</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6" t="n">
+      <c r="D17" s="2" t="n">
+        <v>114.943</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>115.274</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>115.774</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>113.154</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>112.202</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <f aca="false">(D17+E17+F17+G17+H17)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>114.2694</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6" t="n">
+      <c r="D18" s="2" t="n">
+        <v>185.185</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>183.066</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>179.574</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>172.414</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>167.364</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <f aca="false">(D18+E18+F18+G18+H18)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>177.5206</v>
+      </c>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6" t="n">
+      <c r="D19" s="2" t="n">
+        <v>191.388</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>191.388</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>193.939</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>196.56</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>185.292</v>
+      </c>
+      <c r="I19" s="7" t="n">
         <f aca="false">(D19+E19+F19+G19+H19)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>191.7134</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6" t="n">
+      <c r="D20" s="2" t="n">
+        <v>160.804</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>161.535</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>159.402</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>158.77</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>158.494</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <f aca="false">(D20+E20+F20+G20+H20)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>159.801</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6" t="n">
+      <c r="D21" s="2" t="n">
+        <v>152.854</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>152.363</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>148.976</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>148.613</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>148.354</v>
+      </c>
+      <c r="I21" s="7" t="n">
         <f aca="false">(D21+E21+F21+G21+H21)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>150.232</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>256</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="6" t="n">
+      <c r="D22" s="2" t="n">
+        <v>110.66</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>110.179</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>112.261</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>109.862</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>109.458</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <f aca="false">(D22+E22+F22+G22+H22)/5</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>110.484</v>
+      </c>
+      <c r="J22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
